--- a/PlantillaAgil.xlsx
+++ b/PlantillaAgil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unequ\OneDrive\Escritorio\UVM-20231109T194323Z-001\UVM\6 Semeste\Modelo desarrollo Sotfware\3 Parcial\Proyecto 3 Parcial - 13-06-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C790E6-9354-4A05-8509-5595283537DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89C149-88FB-467B-B3DD-622ED91CF5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E2235641-5E65-4C25-A4EE-AD76D0F80E5F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
   <si>
     <t>PLANTILLA DE PLAN DE PROYECTO ÁGIL</t>
   </si>
@@ -29127,11 +29127,11 @@
     <tabColor rgb="FFADB9CA"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG1038"/>
+  <dimension ref="A1:AG1034"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30476,7 +30476,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="21">
-        <f>SUM(I30,I37,I43,I50,I56,I77)/6</f>
+        <f>SUM(I30,I37,I43,I50,I52,I73)/6</f>
         <v>1</v>
       </c>
       <c r="J29" s="18" t="s">
@@ -31430,7 +31430,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="43">
-        <f>SUM(I51:I55)/COUNT(I51:I55)</f>
+        <f>SUM(I51:I51)/COUNT(I51:I51)</f>
         <v>1</v>
       </c>
       <c r="J50" s="41" t="s">
@@ -31506,20 +31506,24 @@
     </row>
     <row r="52" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="48">
+      <c r="B52" s="45"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="40">
+        <f>G52-F52</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="43">
+        <f>SUM(I53:I72)/COUNT(I53:I72)</f>
         <v>1</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="40"/>
       <c r="L52" s="5"/>
       <c r="M52" s="35"/>
       <c r="N52" s="5"/>
@@ -31662,24 +31666,20 @@
     </row>
     <row r="56" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="40">
-        <f>G56-F56</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="43">
-        <f>SUM(I57:I76)/COUNT(I57:I76)</f>
+      <c r="B56" s="46"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48">
         <v>1</v>
       </c>
-      <c r="J56" s="41" t="s">
+      <c r="J56" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="40"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="5"/>
       <c r="M56" s="35"/>
       <c r="N56" s="5"/>
@@ -32329,20 +32329,24 @@
     </row>
     <row r="73" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="47"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="48">
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23">
+        <f t="shared" ref="H73:H97" si="2">G73-F73</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="36">
+        <f>SUM(I74)/COUNT(I74)</f>
         <v>1</v>
       </c>
-      <c r="J73" s="22" t="s">
+      <c r="J73" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K73" s="33"/>
+      <c r="K73" s="23"/>
       <c r="L73" s="5"/>
       <c r="M73" s="35"/>
       <c r="N73" s="5"/>
@@ -32368,14 +32372,17 @@
     </row>
     <row r="74" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="46"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="22"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="48">
+      <c r="D74" s="22"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="37">
         <v>1</v>
       </c>
       <c r="J74" s="22" t="s">
@@ -32407,20 +32414,23 @@
     </row>
     <row r="75" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="48">
+      <c r="B75" s="39"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="21">
         <v>1</v>
       </c>
-      <c r="J75" s="22" t="s">
+      <c r="J75" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="33"/>
+      <c r="K75" s="18"/>
       <c r="L75" s="5"/>
       <c r="M75" s="35"/>
       <c r="N75" s="5"/>
@@ -32446,17 +32456,21 @@
     </row>
     <row r="76" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="48">
+      <c r="B76" s="49"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="36">
+        <f>SUM(I77:I86)/COUNT(I77:I86)</f>
         <v>1</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="41" t="s">
         <v>19</v>
       </c>
       <c r="K76" s="33"/>
@@ -32485,24 +32499,23 @@
     </row>
     <row r="77" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23">
-        <f t="shared" ref="H77:H101" si="2">G77-F77</f>
+      <c r="B77" s="44"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="33">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="36">
-        <f>SUM(I78)/COUNT(I78)</f>
+      <c r="I77" s="37">
         <v>1</v>
       </c>
-      <c r="J77" s="23" t="s">
+      <c r="J77" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="23"/>
+      <c r="K77" s="33"/>
       <c r="L77" s="5"/>
       <c r="M77" s="35"/>
       <c r="N77" s="5"/>
@@ -32528,7 +32541,7 @@
     </row>
     <row r="78" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="10"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="33"/>
@@ -32570,23 +32583,23 @@
     </row>
     <row r="79" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18">
+      <c r="B79" s="44"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="37">
         <v>1</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="18"/>
+      <c r="K79" s="33"/>
       <c r="L79" s="5"/>
       <c r="M79" s="35"/>
       <c r="N79" s="5"/>
@@ -32612,21 +32625,20 @@
     </row>
     <row r="80" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="49">
+      <c r="B80" s="44"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I80" s="36">
-        <f>SUM(I81:I90)/COUNT(I81:I90)</f>
+      <c r="I80" s="37">
         <v>1</v>
       </c>
-      <c r="J80" s="41" t="s">
+      <c r="J80" s="22" t="s">
         <v>19</v>
       </c>
       <c r="K80" s="33"/>
@@ -32779,7 +32791,7 @@
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
     </row>
-    <row r="84" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:33" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="44"/>
       <c r="C84" s="22"/>
@@ -32879,7 +32891,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K86" s="33"/>
       <c r="L86" s="5"/>
@@ -32907,21 +32919,22 @@
     </row>
     <row r="87" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="33">
+      <c r="B87" s="51"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I87" s="37">
+      <c r="I87" s="36">
+        <f>SUM(I88:I95)/COUNT(I88:I95)</f>
         <v>1</v>
       </c>
-      <c r="J87" s="22" t="s">
-        <v>19</v>
+      <c r="J87" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="K87" s="33"/>
       <c r="L87" s="5"/>
@@ -32947,7 +32960,7 @@
       <c r="AF87" s="5"/>
       <c r="AG87" s="5"/>
     </row>
-    <row r="88" spans="1:33" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="44"/>
       <c r="C88" s="22"/>
@@ -32963,33 +32976,33 @@
         <v>1</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K88" s="33"/>
-      <c r="L88" s="5"/>
+      <c r="L88" s="1"/>
       <c r="M88" s="35"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5"/>
-      <c r="AF88" s="5"/>
-      <c r="AG88" s="5"/>
-    </row>
-    <row r="89" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+    </row>
+    <row r="89" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="44"/>
       <c r="C89" s="22"/>
@@ -33005,7 +33018,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K89" s="33"/>
       <c r="L89" s="5"/>
@@ -33075,21 +33088,20 @@
     </row>
     <row r="91" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="49">
+      <c r="B91" s="44"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I91" s="36">
-        <f>SUM(I92:I99)/COUNT(I92:I99)</f>
+      <c r="I91" s="37">
         <v>1</v>
       </c>
-      <c r="J91" s="41" t="s">
+      <c r="J91" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K91" s="33"/>
@@ -33116,7 +33128,7 @@
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
     </row>
-    <row r="92" spans="1:33" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="44"/>
       <c r="C92" s="22"/>
@@ -33135,30 +33147,30 @@
         <v>20</v>
       </c>
       <c r="K92" s="33"/>
-      <c r="L92" s="1"/>
+      <c r="L92" s="5"/>
       <c r="M92" s="35"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
-      <c r="AG92" s="1"/>
-    </row>
-    <row r="93" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
+    </row>
+    <row r="93" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="44"/>
       <c r="C93" s="22"/>
@@ -33258,7 +33270,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" s="33"/>
       <c r="L95" s="5"/>
@@ -33286,21 +33298,22 @@
     </row>
     <row r="96" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="33">
+      <c r="B96" s="51"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I96" s="37">
+      <c r="I96" s="36">
+        <f>SUM(I97:I104)/COUNT(I97:I104)</f>
         <v>1</v>
       </c>
-      <c r="J96" s="22" t="s">
-        <v>20</v>
+      <c r="J96" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="K96" s="33"/>
       <c r="L96" s="5"/>
@@ -33342,9 +33355,9 @@
         <v>1</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="K97" s="33"/>
+      <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="35"/>
       <c r="N97" s="5"/>
@@ -33376,17 +33389,14 @@
       <c r="E98" s="33"/>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
-      <c r="H98" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="H98" s="33"/>
       <c r="I98" s="37">
         <v>1</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="K98" s="33"/>
+      <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="35"/>
       <c r="N98" s="5"/>
@@ -33419,7 +33429,7 @@
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
       <c r="H99" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H99:H130" si="3">G99-F99</f>
         <v>0</v>
       </c>
       <c r="I99" s="37">
@@ -33428,7 +33438,7 @@
       <c r="J99" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K99" s="33"/>
+      <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="35"/>
       <c r="N99" s="5"/>
@@ -33454,24 +33464,23 @@
     </row>
     <row r="100" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="49">
-        <f t="shared" si="2"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="33">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I100" s="36">
-        <f>SUM(I101:I108)/COUNT(I101:I108)</f>
+      <c r="I100" s="37">
         <v>1</v>
       </c>
-      <c r="J100" s="41" t="s">
+      <c r="J100" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="33"/>
+      <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="35"/>
       <c r="N100" s="5"/>
@@ -33504,7 +33513,7 @@
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
       <c r="H101" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I101" s="37">
@@ -33545,7 +33554,10 @@
       <c r="E102" s="33"/>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
-      <c r="H102" s="33"/>
+      <c r="H102" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I102" s="37">
         <v>1</v>
       </c>
@@ -33585,7 +33597,7 @@
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
       <c r="H103" s="33">
-        <f t="shared" ref="H103:H134" si="3">G103-F103</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I103" s="37">
@@ -33662,20 +33674,21 @@
     </row>
     <row r="105" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="33">
+      <c r="B105" s="51"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I105" s="37">
+      <c r="I105" s="36">
+        <f>SUM(I106:I110)/COUNT(I106:I110)</f>
         <v>1</v>
       </c>
-      <c r="J105" s="22" t="s">
+      <c r="J105" s="41" t="s">
         <v>19</v>
       </c>
       <c r="K105" s="5"/>
@@ -33705,7 +33718,7 @@
     <row r="106" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="44"/>
-      <c r="C106" s="22"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="22"/>
       <c r="E106" s="33"/>
       <c r="F106" s="34"/>
@@ -33830,21 +33843,20 @@
     </row>
     <row r="109" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="49">
+      <c r="B109" s="44"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I109" s="36">
-        <f>SUM(I110:I114)/COUNT(I110:I114)</f>
+      <c r="I109" s="37">
         <v>1</v>
       </c>
-      <c r="J109" s="41" t="s">
+      <c r="J109" s="22" t="s">
         <v>19</v>
       </c>
       <c r="K109" s="5"/>
@@ -33874,7 +33886,7 @@
     <row r="110" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="44"/>
-      <c r="C110" s="52"/>
+      <c r="C110" s="22"/>
       <c r="D110" s="22"/>
       <c r="E110" s="33"/>
       <c r="F110" s="34"/>
@@ -33915,20 +33927,20 @@
     </row>
     <row r="111" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="33">
+      <c r="B111" s="51"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I111" s="37">
+      <c r="I111" s="36">
         <v>1</v>
       </c>
-      <c r="J111" s="22" t="s">
+      <c r="J111" s="41" t="s">
         <v>19</v>
       </c>
       <c r="K111" s="5"/>
@@ -33999,21 +34011,21 @@
     </row>
     <row r="113" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="33">
+      <c r="B113" s="51"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I113" s="37">
-        <v>1</v>
+      <c r="I113" s="36">
+        <v>0</v>
       </c>
-      <c r="J113" s="22" t="s">
-        <v>19</v>
+      <c r="J113" s="41" t="s">
+        <v>21</v>
       </c>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -34052,10 +34064,10 @@
         <v>0</v>
       </c>
       <c r="I114" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -34083,21 +34095,21 @@
     </row>
     <row r="115" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="49">
+      <c r="B115" s="44"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I115" s="36">
-        <v>1</v>
+      <c r="I115" s="37">
+        <v>0.5</v>
       </c>
-      <c r="J115" s="41" t="s">
-        <v>19</v>
+      <c r="J115" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
@@ -34136,10 +34148,10 @@
         <v>0</v>
       </c>
       <c r="I116" s="37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -34167,20 +34179,20 @@
     </row>
     <row r="117" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="49">
+      <c r="B117" s="44"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I117" s="36">
-        <v>0</v>
+      <c r="I117" s="37">
+        <v>0.5</v>
       </c>
-      <c r="J117" s="41" t="s">
+      <c r="J117" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K117" s="5"/>
@@ -34251,21 +34263,21 @@
     </row>
     <row r="119" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="33">
+      <c r="B119" s="51"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I119" s="37">
-        <v>0.5</v>
+      <c r="I119" s="36">
+        <v>0</v>
       </c>
-      <c r="J119" s="22" t="s">
-        <v>21</v>
+      <c r="J119" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -34304,10 +34316,10 @@
         <v>0</v>
       </c>
       <c r="I120" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -34346,10 +34358,10 @@
         <v>0</v>
       </c>
       <c r="I121" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J121" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -34375,7 +34387,7 @@
       <c r="AF121" s="5"/>
       <c r="AG121" s="5"/>
     </row>
-    <row r="122" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="44"/>
       <c r="C122" s="22"/>
@@ -34388,10 +34400,10 @@
         <v>0</v>
       </c>
       <c r="I122" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J122" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -34419,20 +34431,20 @@
     </row>
     <row r="123" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="49">
+      <c r="B123" s="44"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I123" s="36">
+      <c r="I123" s="37">
         <v>0</v>
       </c>
-      <c r="J123" s="41" t="s">
+      <c r="J123" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K123" s="5"/>
@@ -34503,20 +34515,20 @@
     </row>
     <row r="125" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="34"/>
-      <c r="G125" s="34"/>
-      <c r="H125" s="33">
+      <c r="B125" s="51"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I125" s="37">
+      <c r="I125" s="36">
         <v>0</v>
       </c>
-      <c r="J125" s="22" t="s">
+      <c r="J125" s="41" t="s">
         <v>20</v>
       </c>
       <c r="K125" s="5"/>
@@ -34543,7 +34555,7 @@
       <c r="AF125" s="5"/>
       <c r="AG125" s="5"/>
     </row>
-    <row r="126" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="44"/>
       <c r="C126" s="22"/>
@@ -34627,7 +34639,7 @@
       <c r="AF127" s="5"/>
       <c r="AG127" s="5"/>
     </row>
-    <row r="128" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="44"/>
       <c r="C128" s="22"/>
@@ -34671,20 +34683,20 @@
     </row>
     <row r="129" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="51"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="49">
+      <c r="B129" s="44"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I129" s="36">
+      <c r="I129" s="37">
         <v>0</v>
       </c>
-      <c r="J129" s="41" t="s">
+      <c r="J129" s="22" t="s">
         <v>20</v>
       </c>
       <c r="K129" s="5"/>
@@ -34713,23 +34725,19 @@
     </row>
     <row r="130" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="44"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="33">
+      <c r="B130" s="53"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I130" s="37">
-        <v>0</v>
-      </c>
-      <c r="J130" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K130" s="5"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="57"/>
       <c r="L130" s="5"/>
       <c r="M130" s="35"/>
       <c r="N130" s="5"/>
@@ -34755,22 +34763,15 @@
     </row>
     <row r="131" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I131" s="37">
-        <v>0</v>
-      </c>
-      <c r="J131" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="35"/>
@@ -34795,24 +34796,17 @@
       <c r="AF131" s="5"/>
       <c r="AG131" s="5"/>
     </row>
-    <row r="132" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I132" s="37">
-        <v>0</v>
-      </c>
-      <c r="J132" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="35"/>
@@ -34839,22 +34833,15 @@
     </row>
     <row r="133" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I133" s="37">
-        <v>0</v>
-      </c>
-      <c r="J133" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="35"/>
@@ -34881,19 +34868,16 @@
     </row>
     <row r="134" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="54"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-      <c r="K134" s="57"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="35"/>
       <c r="N134" s="5"/>
@@ -35092,7 +35076,7 @@
       <c r="AF139" s="5"/>
       <c r="AG139" s="5"/>
     </row>
-    <row r="140" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="5"/>
@@ -35127,7 +35111,7 @@
       <c r="AF140" s="5"/>
       <c r="AG140" s="5"/>
     </row>
-    <row r="141" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="5"/>
@@ -35162,7 +35146,7 @@
       <c r="AF141" s="5"/>
       <c r="AG141" s="5"/>
     </row>
-    <row r="142" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="5"/>
@@ -35197,7 +35181,7 @@
       <c r="AF142" s="5"/>
       <c r="AG142" s="5"/>
     </row>
-    <row r="143" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="5"/>
@@ -38805,15 +38789,15 @@
     <row r="246" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5"/>
-      <c r="K246" s="5"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
       <c r="L246" s="5"/>
       <c r="M246" s="35"/>
       <c r="N246" s="5"/>
@@ -38840,15 +38824,15 @@
     <row r="247" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
-      <c r="C247" s="5"/>
-      <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="5"/>
-      <c r="I247" s="5"/>
-      <c r="J247" s="5"/>
-      <c r="K247" s="5"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
       <c r="L247" s="5"/>
       <c r="M247" s="35"/>
       <c r="N247" s="5"/>
@@ -38875,15 +38859,15 @@
     <row r="248" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
-      <c r="C248" s="5"/>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="5"/>
-      <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="5"/>
-      <c r="K248" s="5"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
       <c r="L248" s="5"/>
       <c r="M248" s="35"/>
       <c r="N248" s="5"/>
@@ -38910,15 +38894,15 @@
     <row r="249" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
-      <c r="C249" s="5"/>
-      <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5"/>
-      <c r="K249" s="5"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
       <c r="L249" s="5"/>
       <c r="M249" s="35"/>
       <c r="N249" s="5"/>
@@ -39129,28 +39113,28 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
-      <c r="L255" s="5"/>
-      <c r="M255" s="35"/>
-      <c r="N255" s="5"/>
-      <c r="O255" s="5"/>
-      <c r="P255" s="5"/>
-      <c r="Q255" s="5"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-      <c r="W255" s="5"/>
-      <c r="X255" s="5"/>
-      <c r="Y255" s="5"/>
-      <c r="Z255" s="5"/>
-      <c r="AA255" s="5"/>
-      <c r="AB255" s="5"/>
-      <c r="AC255" s="5"/>
-      <c r="AD255" s="5"/>
-      <c r="AE255" s="5"/>
-      <c r="AF255" s="5"/>
-      <c r="AG255" s="5"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="11"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="S255" s="1"/>
+      <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
+      <c r="W255" s="1"/>
+      <c r="X255" s="1"/>
+      <c r="Y255" s="1"/>
+      <c r="Z255" s="1"/>
+      <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
+      <c r="AC255" s="1"/>
+      <c r="AD255" s="1"/>
+      <c r="AE255" s="1"/>
+      <c r="AF255" s="1"/>
+      <c r="AG255" s="1"/>
     </row>
     <row r="256" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
@@ -39164,28 +39148,28 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
-      <c r="L256" s="5"/>
-      <c r="M256" s="35"/>
-      <c r="N256" s="5"/>
-      <c r="O256" s="5"/>
-      <c r="P256" s="5"/>
-      <c r="Q256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-      <c r="W256" s="5"/>
-      <c r="X256" s="5"/>
-      <c r="Y256" s="5"/>
-      <c r="Z256" s="5"/>
-      <c r="AA256" s="5"/>
-      <c r="AB256" s="5"/>
-      <c r="AC256" s="5"/>
-      <c r="AD256" s="5"/>
-      <c r="AE256" s="5"/>
-      <c r="AF256" s="5"/>
-      <c r="AG256" s="5"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="11"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="S256" s="1"/>
+      <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
+      <c r="W256" s="1"/>
+      <c r="X256" s="1"/>
+      <c r="Y256" s="1"/>
+      <c r="Z256" s="1"/>
+      <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
+      <c r="AC256" s="1"/>
+      <c r="AD256" s="1"/>
+      <c r="AE256" s="1"/>
+      <c r="AF256" s="1"/>
+      <c r="AG256" s="1"/>
     </row>
     <row r="257" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
@@ -39199,28 +39183,28 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
-      <c r="L257" s="5"/>
-      <c r="M257" s="35"/>
-      <c r="N257" s="5"/>
-      <c r="O257" s="5"/>
-      <c r="P257" s="5"/>
-      <c r="Q257" s="5"/>
-      <c r="R257" s="5"/>
-      <c r="S257" s="5"/>
-      <c r="T257" s="5"/>
-      <c r="U257" s="5"/>
-      <c r="V257" s="5"/>
-      <c r="W257" s="5"/>
-      <c r="X257" s="5"/>
-      <c r="Y257" s="5"/>
-      <c r="Z257" s="5"/>
-      <c r="AA257" s="5"/>
-      <c r="AB257" s="5"/>
-      <c r="AC257" s="5"/>
-      <c r="AD257" s="5"/>
-      <c r="AE257" s="5"/>
-      <c r="AF257" s="5"/>
-      <c r="AG257" s="5"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="11"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="S257" s="1"/>
+      <c r="T257" s="1"/>
+      <c r="U257" s="1"/>
+      <c r="V257" s="1"/>
+      <c r="W257" s="1"/>
+      <c r="X257" s="1"/>
+      <c r="Y257" s="1"/>
+      <c r="Z257" s="1"/>
+      <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
+      <c r="AC257" s="1"/>
+      <c r="AD257" s="1"/>
+      <c r="AE257" s="1"/>
+      <c r="AF257" s="1"/>
+      <c r="AG257" s="1"/>
     </row>
     <row r="258" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
@@ -39234,28 +39218,28 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
-      <c r="L258" s="5"/>
-      <c r="M258" s="35"/>
-      <c r="N258" s="5"/>
-      <c r="O258" s="5"/>
-      <c r="P258" s="5"/>
-      <c r="Q258" s="5"/>
-      <c r="R258" s="5"/>
-      <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
-      <c r="U258" s="5"/>
-      <c r="V258" s="5"/>
-      <c r="W258" s="5"/>
-      <c r="X258" s="5"/>
-      <c r="Y258" s="5"/>
-      <c r="Z258" s="5"/>
-      <c r="AA258" s="5"/>
-      <c r="AB258" s="5"/>
-      <c r="AC258" s="5"/>
-      <c r="AD258" s="5"/>
-      <c r="AE258" s="5"/>
-      <c r="AF258" s="5"/>
-      <c r="AG258" s="5"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="11"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="S258" s="1"/>
+      <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+      <c r="Y258" s="1"/>
+      <c r="Z258" s="1"/>
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
+      <c r="AE258" s="1"/>
+      <c r="AF258" s="1"/>
+      <c r="AG258" s="1"/>
     </row>
     <row r="259" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
@@ -66104,16 +66088,6 @@
     </row>
     <row r="1026" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="1"/>
-      <c r="B1026" s="1"/>
-      <c r="C1026" s="1"/>
-      <c r="D1026" s="1"/>
-      <c r="E1026" s="1"/>
-      <c r="F1026" s="1"/>
-      <c r="G1026" s="1"/>
-      <c r="H1026" s="1"/>
-      <c r="I1026" s="1"/>
-      <c r="J1026" s="1"/>
-      <c r="K1026" s="1"/>
       <c r="L1026" s="1"/>
       <c r="M1026" s="11"/>
       <c r="N1026" s="1"/>
@@ -66139,16 +66113,6 @@
     </row>
     <row r="1027" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="1"/>
-      <c r="B1027" s="1"/>
-      <c r="C1027" s="1"/>
-      <c r="D1027" s="1"/>
-      <c r="E1027" s="1"/>
-      <c r="F1027" s="1"/>
-      <c r="G1027" s="1"/>
-      <c r="H1027" s="1"/>
-      <c r="I1027" s="1"/>
-      <c r="J1027" s="1"/>
-      <c r="K1027" s="1"/>
       <c r="L1027" s="1"/>
       <c r="M1027" s="11"/>
       <c r="N1027" s="1"/>
@@ -66174,16 +66138,6 @@
     </row>
     <row r="1028" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="1"/>
-      <c r="B1028" s="1"/>
-      <c r="C1028" s="1"/>
-      <c r="D1028" s="1"/>
-      <c r="E1028" s="1"/>
-      <c r="F1028" s="1"/>
-      <c r="G1028" s="1"/>
-      <c r="H1028" s="1"/>
-      <c r="I1028" s="1"/>
-      <c r="J1028" s="1"/>
-      <c r="K1028" s="1"/>
       <c r="L1028" s="1"/>
       <c r="M1028" s="11"/>
       <c r="N1028" s="1"/>
@@ -66209,16 +66163,6 @@
     </row>
     <row r="1029" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="1"/>
-      <c r="B1029" s="1"/>
-      <c r="C1029" s="1"/>
-      <c r="D1029" s="1"/>
-      <c r="E1029" s="1"/>
-      <c r="F1029" s="1"/>
-      <c r="G1029" s="1"/>
-      <c r="H1029" s="1"/>
-      <c r="I1029" s="1"/>
-      <c r="J1029" s="1"/>
-      <c r="K1029" s="1"/>
       <c r="L1029" s="1"/>
       <c r="M1029" s="11"/>
       <c r="N1029" s="1"/>
@@ -66367,112 +66311,12 @@
       <c r="AF1034" s="1"/>
       <c r="AG1034" s="1"/>
     </row>
-    <row r="1035" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1035" s="1"/>
-      <c r="L1035" s="1"/>
-      <c r="M1035" s="11"/>
-      <c r="N1035" s="1"/>
-      <c r="O1035" s="1"/>
-      <c r="P1035" s="1"/>
-      <c r="Q1035" s="1"/>
-      <c r="R1035" s="1"/>
-      <c r="S1035" s="1"/>
-      <c r="T1035" s="1"/>
-      <c r="U1035" s="1"/>
-      <c r="V1035" s="1"/>
-      <c r="W1035" s="1"/>
-      <c r="X1035" s="1"/>
-      <c r="Y1035" s="1"/>
-      <c r="Z1035" s="1"/>
-      <c r="AA1035" s="1"/>
-      <c r="AB1035" s="1"/>
-      <c r="AC1035" s="1"/>
-      <c r="AD1035" s="1"/>
-      <c r="AE1035" s="1"/>
-      <c r="AF1035" s="1"/>
-      <c r="AG1035" s="1"/>
-    </row>
-    <row r="1036" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1036" s="1"/>
-      <c r="L1036" s="1"/>
-      <c r="M1036" s="11"/>
-      <c r="N1036" s="1"/>
-      <c r="O1036" s="1"/>
-      <c r="P1036" s="1"/>
-      <c r="Q1036" s="1"/>
-      <c r="R1036" s="1"/>
-      <c r="S1036" s="1"/>
-      <c r="T1036" s="1"/>
-      <c r="U1036" s="1"/>
-      <c r="V1036" s="1"/>
-      <c r="W1036" s="1"/>
-      <c r="X1036" s="1"/>
-      <c r="Y1036" s="1"/>
-      <c r="Z1036" s="1"/>
-      <c r="AA1036" s="1"/>
-      <c r="AB1036" s="1"/>
-      <c r="AC1036" s="1"/>
-      <c r="AD1036" s="1"/>
-      <c r="AE1036" s="1"/>
-      <c r="AF1036" s="1"/>
-      <c r="AG1036" s="1"/>
-    </row>
-    <row r="1037" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1037" s="1"/>
-      <c r="L1037" s="1"/>
-      <c r="M1037" s="11"/>
-      <c r="N1037" s="1"/>
-      <c r="O1037" s="1"/>
-      <c r="P1037" s="1"/>
-      <c r="Q1037" s="1"/>
-      <c r="R1037" s="1"/>
-      <c r="S1037" s="1"/>
-      <c r="T1037" s="1"/>
-      <c r="U1037" s="1"/>
-      <c r="V1037" s="1"/>
-      <c r="W1037" s="1"/>
-      <c r="X1037" s="1"/>
-      <c r="Y1037" s="1"/>
-      <c r="Z1037" s="1"/>
-      <c r="AA1037" s="1"/>
-      <c r="AB1037" s="1"/>
-      <c r="AC1037" s="1"/>
-      <c r="AD1037" s="1"/>
-      <c r="AE1037" s="1"/>
-      <c r="AF1037" s="1"/>
-      <c r="AG1037" s="1"/>
-    </row>
-    <row r="1038" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1038" s="1"/>
-      <c r="L1038" s="1"/>
-      <c r="M1038" s="11"/>
-      <c r="N1038" s="1"/>
-      <c r="O1038" s="1"/>
-      <c r="P1038" s="1"/>
-      <c r="Q1038" s="1"/>
-      <c r="R1038" s="1"/>
-      <c r="S1038" s="1"/>
-      <c r="T1038" s="1"/>
-      <c r="U1038" s="1"/>
-      <c r="V1038" s="1"/>
-      <c r="W1038" s="1"/>
-      <c r="X1038" s="1"/>
-      <c r="Y1038" s="1"/>
-      <c r="Z1038" s="1"/>
-      <c r="AA1038" s="1"/>
-      <c r="AB1038" s="1"/>
-      <c r="AC1038" s="1"/>
-      <c r="AD1038" s="1"/>
-      <c r="AE1038" s="1"/>
-      <c r="AF1038" s="1"/>
-      <c r="AG1038" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="J6:J14 M6:M21 J16:J17 J19:J21 J23:J26 J28 J80:J133 J30:J78">
+  <conditionalFormatting sqref="J6:J14 M6:M21 J16:J17 J19:J21 J23:J26 J28 J76:J129 J30:J74">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Vencido">
       <formula>NOT(ISERROR(SEARCH(("Vencido"),(J6))))</formula>
     </cfRule>
@@ -66490,7 +66334,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J6:J133" xr:uid="{A5F1F173-A07E-495E-9ACC-89F4C64870D5}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J6:J129" xr:uid="{A5F1F173-A07E-495E-9ACC-89F4C64870D5}">
       <formula1>$M$6:$M$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -66512,6 +66356,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006999CFE2A9E92D43BF700C702BFD3244" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="14c2038102ad3998a2ad52d4fd42dbcb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="89079da7-99d3-46d6-b6a0-44462bd9e3f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d5c6b4578708db11a83442c89f613d5" ns2:_="">
     <xsd:import namespace="89079da7-99d3-46d6-b6a0-44462bd9e3f9"/>
@@ -66661,16 +66514,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{048B206B-2263-4884-AF1E-931D1291DC01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A22856BA-7FF5-4818-B375-537EE030A835}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -66686,12 +66538,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{048B206B-2263-4884-AF1E-931D1291DC01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>